--- a/nodes_source_analyses/energy/energy_chp_local_engine_biogas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_local_engine_biogas.central_producer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211749B5-0857-9541-9C61-7F6BBAE6246D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F217541-FFC2-B247-A1F5-C507AA84064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="3620" windowWidth="31600" windowHeight="23220" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
   <si>
     <t>Source</t>
   </si>
@@ -655,6 +655,9 @@
   <si>
     <t>https://refman.energytransitionmodel.com/publications/2092</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -665,12 +668,19 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1245,603 +1255,604 @@
   </borders>
   <cellStyleXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="281">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2939,8 +2950,8 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2965,28 +2976,28 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
@@ -3396,15 +3407,15 @@
         <v>3</v>
       </c>
       <c r="E27" s="43">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="30" t="s">
-        <v>55</v>
+      <c r="I27" s="178" t="s">
+        <v>142</v>
       </c>
       <c r="J27" s="119"/>
     </row>
@@ -4420,7 +4431,7 @@
     </row>
     <row r="21" spans="2:10" ht="34">
       <c r="B21" s="49"/>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="167" t="s">
         <v>138</v>
       </c>
       <c r="E21" s="44" t="s">
@@ -4554,16 +4565,16 @@
       <c r="B8" s="136"/>
       <c r="C8" s="137"/>
       <c r="D8" s="137"/>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
       <c r="M8" s="137"/>
       <c r="N8" s="137"/>
       <c r="O8" s="138"/>
@@ -4602,11 +4613,11 @@
     </row>
     <row r="11" spans="2:15" ht="102">
       <c r="B11" s="136"/>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="165" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="137"/>
-      <c r="E11" s="176" t="s">
+      <c r="E11" s="166" t="s">
         <v>138</v>
       </c>
       <c r="F11" s="137"/>
